--- a/binaryGraph.xlsx
+++ b/binaryGraph.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dead\Documents\GitHub\DeadHorseEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8C4FB057-CA00-4717-9A1F-1943E306ABA4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="1410" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -434,7 +436,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -479,10 +481,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,6 +578,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -611,6 +630,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -786,7 +822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -1019,44 +1055,44 @@
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4" t="s">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
@@ -1065,12 +1101,12 @@
       <c r="E4" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="3" t="s">
         <v>127</v>
       </c>
@@ -2832,7 +2868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2844,7 +2880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
